--- a/sector_breakdown/Industry/olefin production.xlsx
+++ b/sector_breakdown/Industry/olefin production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/EEMsection/Delte dokumenter/General/PtXMarkets/Carmen's work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/sector_breakdown/Industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{90C4534D-4FB8-409E-B50B-56DCF93BB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9D98F9-E93C-4213-9028-F18AE68DF93C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BE0D8B7-1EB2-42F3-8753-AB53EA5F6071}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BE0D8B7-1EB2-42F3-8753-AB53EA5F6071}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2582,9 +2582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2622,7 +2622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2728,7 +2728,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2870,7 +2870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2881,7 +2881,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,15 +3451,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D8331A7A67074A478E4DEB50568F0747" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a1e86bcd7b00a3670fe7f90c0152ce35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fa5a077-4a93-48a7-9217-96ff940fe088" xmlns:ns3="262418f3-8967-42a1-91f5-8aa137fbcf65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fd4310cff1c0468adc12803bd0fadfe" ns2:_="" ns3:_="">
     <xsd:import namespace="1fa5a077-4a93-48a7-9217-96ff940fe088"/>
@@ -3676,6 +3667,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC84CA0-5B32-4FC8-9914-6E177374DAC5}">
   <ds:schemaRefs>
@@ -3694,14 +3694,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655149D6-5C11-4293-8BCF-17A5FF4A49B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BDF84C7-A469-465A-ACA8-142CDBFB5E5F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3718,4 +3710,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655149D6-5C11-4293-8BCF-17A5FF4A49B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>